--- a/ApolloQA/Data/RatingManual/GA/VA00074.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00074.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00074" sheetId="1" r:id="Ra564fa665a474e0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00074" sheetId="1" r:id="Rd61f0acc9b504b10"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,128 +26,62 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>VA00074.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.IsAccidentPreventionFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.CoveredAutosFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.IsVehicleLevelSafetyFeaturesFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.LimitFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.ClassCodeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.VehicleAgeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.FleetSizeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.InsuranceScoreTierFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.TerritoryFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.FleetSize_VehicleAgeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>VA00074.BillingType_IsEFT_PaymentPlanFactors</x:v>
+        <x:v>Trailer Interchange Exposure Base</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Limit</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00005.BaseRateFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00005.WrittenAgreementFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00005.CollisionType_OtherThanCollisionTypeFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00005.CollisionDeductible_OtherThanCollisionDeductible_LimitFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
